--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DELTA_iDISCO\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moharb/Repos/DELTA_iDISCO/paramaters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3472E-E0DD-4910-8365-4DEC5D97F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7A837-C269-2841-AA75-8E0C453F9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25248" yWindow="0" windowWidth="20928" windowHeight="25296" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="61">
   <si>
     <t>female</t>
   </si>
@@ -217,13 +217,16 @@
   </si>
   <si>
     <t>CF3</t>
+  </si>
+  <si>
+    <t>/nrs/spruston/Boaz/I2/202410_iDisco_Run3_mousecity/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,24 +641,24 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -699,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -744,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -789,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -834,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -879,7 +882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -924,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -969,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1104,7 +1107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>45568</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K16" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1374,18 +1377,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>222638</v>
+        <v>220742</v>
       </c>
       <c r="C17">
-        <v>553920</v>
+        <v>550437</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
@@ -1394,43 +1397,43 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1">
-        <v>45425</v>
+        <v>45377</v>
       </c>
       <c r="I17" s="1">
-        <v>45583</v>
+        <v>45554</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K17" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.2666666666666666</v>
+        <v>5.9</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>220678</v>
+        <v>220742</v>
       </c>
       <c r="C18">
-        <v>554459</v>
+        <v>550438</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -1442,29 +1445,29 @@
         <v>9</v>
       </c>
       <c r="H18" s="1">
-        <v>45430</v>
+        <v>45377</v>
       </c>
       <c r="I18" s="1">
-        <v>45583</v>
+        <v>45554</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K18" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>220742</v>
       </c>
       <c r="C19">
-        <v>550437</v>
+        <v>550439</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1493,7 +1496,7 @@
         <v>45554</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K19" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1506,18 +1509,18 @@
         <v>52</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>220742</v>
+        <v>220743</v>
       </c>
       <c r="C20">
-        <v>550438</v>
+        <v>551775</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1532,17 +1535,17 @@
         <v>9</v>
       </c>
       <c r="H20" s="1">
-        <v>45377</v>
+        <v>45393</v>
       </c>
       <c r="I20" s="1">
         <v>45554</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K20" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.9</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="L20">
         <v>8</v>
@@ -1551,18 +1554,18 @@
         <v>52</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>220742</v>
+        <v>220743</v>
       </c>
       <c r="C21">
-        <v>550439</v>
+        <v>551775</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1577,17 +1580,17 @@
         <v>9</v>
       </c>
       <c r="H21" s="1">
-        <v>45377</v>
+        <v>45393</v>
       </c>
       <c r="I21" s="1">
         <v>45554</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K21" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.9</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -1596,10 +1599,10 @@
         <v>52</v>
       </c>
       <c r="N21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>45554</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K22" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1641,21 +1644,21 @@
         <v>52</v>
       </c>
       <c r="N22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>220743</v>
+        <v>222638</v>
       </c>
       <c r="C23">
-        <v>551775</v>
+        <v>553920</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1664,43 +1667,43 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>45393</v>
+        <v>45425</v>
       </c>
       <c r="I23" s="1">
-        <v>45554</v>
+        <v>45583</v>
       </c>
       <c r="J23" t="s">
         <v>43</v>
       </c>
       <c r="K23" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.3666666666666663</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>220743</v>
+        <v>220678</v>
       </c>
       <c r="C24">
-        <v>551775</v>
+        <v>554459</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -1712,29 +1715,29 @@
         <v>9</v>
       </c>
       <c r="H24" s="1">
-        <v>45393</v>
+        <v>45430</v>
       </c>
       <c r="I24" s="1">
-        <v>45554</v>
+        <v>45583</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
       </c>
       <c r="K24" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.3666666666666663</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="N24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1914,7 +1917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2059,12 +2062,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2106,7 +2109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -2133,12 +2136,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>52</v>
       </c>

--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moharb/Repos/DELTA_iDISCO/paramaters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DELTA_iDISCO\paramaters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7A837-C269-2841-AA75-8E0C453F9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BA049-9DEC-45EC-BBFF-7BD169D585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
+    <workbookView xWindow="3552" yWindow="3120" windowWidth="19464" windowHeight="11232" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,25 +640,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683598A3-2D17-4BD1-A232-F944C044D30F}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" activeCellId="1" sqref="C23 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
     <col min="12" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -747,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
@@ -792,7 +792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
@@ -882,7 +882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>220743</v>
       </c>
       <c r="C21">
-        <v>551775</v>
+        <v>551776</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1602,7 +1602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>220743</v>
       </c>
       <c r="C22">
-        <v>551775</v>
+        <v>551777</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1647,7 +1647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2062,12 +2062,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -2136,12 +2136,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="D7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="D8" t="s">
         <v>52</v>
       </c>

--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DELTA_iDISCO\paramaters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BA049-9DEC-45EC-BBFF-7BD169D585AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486072A-8188-44D2-A355-F6187971A42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="3120" windowWidth="19464" windowHeight="11232" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="72">
   <si>
     <t>female</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Problem with Pulse, test for iDISCO</t>
   </si>
   <si>
-    <t>Zero day iDISCO</t>
-  </si>
-  <si>
     <t>Interval</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>BM28</t>
   </si>
   <si>
-    <t>Not imaged yet</t>
-  </si>
-  <si>
     <t>BM29</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>MouseCity</t>
   </si>
   <si>
-    <t>Not perfused yet</t>
-  </si>
-  <si>
     <t>CM1</t>
   </si>
   <si>
@@ -220,6 +211,48 @@
   </si>
   <si>
     <t>/nrs/spruston/Boaz/I2/202410_iDisco_Run3_mousecity/</t>
+  </si>
+  <si>
+    <t>/nrs/spruston/Boaz/I2/20241104_iDISCO_R4/</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Z552_1</t>
+  </si>
+  <si>
+    <t>Z552_2</t>
+  </si>
+  <si>
+    <t>Z673_1</t>
+  </si>
+  <si>
+    <t>Z673_2</t>
+  </si>
+  <si>
+    <t>Z673_3</t>
+  </si>
+  <si>
+    <t>Problem with Pulse, spots</t>
+  </si>
+  <si>
+    <t>Z552_3</t>
+  </si>
+  <si>
+    <t>Z552_4</t>
+  </si>
+  <si>
+    <t>Z552_5</t>
+  </si>
+  <si>
+    <t>Z673_4</t>
+  </si>
+  <si>
+    <t>Z673_5</t>
   </si>
 </sst>
 </file>
@@ -297,9 +330,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}" name="Table1" displayName="Table1" ref="A1:N30" totalsRowShown="0">
-  <autoFilter ref="A1:N30" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}" name="Table1" displayName="Table1" ref="A1:O30" totalsRowShown="0">
+  <autoFilter ref="A1:O30" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9716BF13-BE76-4B73-BD3E-36A9B2EA60A4}" name="Number"/>
     <tableColumn id="2" xr3:uid="{72BE8D4C-BEB1-485A-BCF6-41CBA4A81747}" name="Cage"/>
     <tableColumn id="3" xr3:uid="{4848C2CB-B0B7-4BCA-9205-5AE00CEED3CB}" name="AnimalID"/>
@@ -315,6 +348,7 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{AF8D5452-8CB4-47FE-A764-60BF8A263494}" name="Interval"/>
     <tableColumn id="14" xr3:uid="{70B39639-FC16-4044-B323-0257F3B4A89D}" name="Group"/>
+    <tableColumn id="10" xr3:uid="{5AFBF131-F1F9-4319-8214-23835E08C6FD}" name="ShortName"/>
     <tableColumn id="12" xr3:uid="{F4F91E8F-AFF8-4F76-AC7D-8021B6F2F64D}" name="Comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -638,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683598A3-2D17-4BD1-A232-F944C044D30F}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E21" activeCellId="1" sqref="C23 E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -654,11 +688,11 @@
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="58.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="12" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -684,25 +718,28 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -716,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -731,7 +768,7 @@
         <v>45546</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -741,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -761,7 +798,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -776,7 +813,7 @@
         <v>45546</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -786,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -806,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -821,7 +858,7 @@
         <v>45546</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -831,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -851,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -866,7 +903,7 @@
         <v>45546</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -876,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -911,7 +948,7 @@
         <v>45532</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -921,13 +958,16 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -941,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -956,7 +996,7 @@
         <v>45546</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -966,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -986,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1001,7 +1041,7 @@
         <v>45546</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1011,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1031,7 +1071,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1046,7 +1086,7 @@
         <v>45546</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1056,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1091,7 +1131,7 @@
         <v>45527</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1101,13 +1141,13 @@
         <v>3</v>
       </c>
       <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1121,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1136,7 +1176,7 @@
         <v>45546</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1146,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1166,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1181,7 +1221,7 @@
         <v>45546</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1191,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1226,7 +1266,7 @@
         <v>45527</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1236,13 +1276,13 @@
         <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1271,7 +1311,7 @@
         <v>45548</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1281,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1301,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1316,7 +1356,7 @@
         <v>45546</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1326,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1361,7 +1401,7 @@
         <v>45568</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1371,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1406,7 +1446,7 @@
         <v>45554</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K17" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1416,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1451,7 +1491,7 @@
         <v>45554</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K18" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1461,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1496,7 +1536,7 @@
         <v>45554</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K19" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1506,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1541,7 +1581,7 @@
         <v>45554</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K20" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1551,13 +1591,13 @@
         <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1586,7 +1626,7 @@
         <v>45554</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1596,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1631,7 +1671,7 @@
         <v>45554</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K22" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1641,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1676,7 +1716,7 @@
         <v>45583</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K23" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1686,13 +1726,13 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1721,7 +1761,7 @@
         <v>45583</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="K24" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1731,13 +1771,13 @@
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1766,7 +1806,7 @@
         <v>45588</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K25" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1776,13 +1816,13 @@
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1811,7 +1851,7 @@
         <v>45588</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K26" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1821,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="M26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1856,7 +1896,7 @@
         <v>45588</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K27" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1866,13 +1906,16 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1901,7 +1944,7 @@
         <v>45588</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K28" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1911,13 +1954,13 @@
         <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1946,7 +1989,7 @@
         <v>45588</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K29" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -1956,13 +1999,13 @@
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1991,7 +2034,7 @@
         <v>45588</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K30" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
@@ -2001,13 +2044,14 @@
         <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 B1:B3 B4:C6" xr:uid="{88CC0290-20DF-4D54-8A93-BFB36B30A4F6}">
       <formula1>100000</formula1>
@@ -2078,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2092,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2106,18 +2150,18 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2125,7 +2169,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2133,17 +2177,17 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DELTA_iDISCO\paramaters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4486072A-8188-44D2-A355-F6187971A42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0158BF0-6776-4C0C-8E9F-58D27EA15903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
@@ -675,7 +675,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -686,10 +686,12 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="58.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">

--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\DELTA_iDISCO\paramaters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moharb/Repos/DELTA_iDISCO/paramaters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0158BF0-6776-4C0C-8E9F-58D27EA15903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56010FDD-6A81-214E-8FA5-DAF3CADDA708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="89">
   <si>
     <t>female</t>
   </si>
@@ -253,13 +253,64 @@
   </si>
   <si>
     <t>Z673_5</t>
+  </si>
+  <si>
+    <t>/nrs/spruston/Boaz/I2/20251001_DOI/</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>DMSO</t>
+  </si>
+  <si>
+    <t>DOI1</t>
+  </si>
+  <si>
+    <t>DOI2</t>
+  </si>
+  <si>
+    <t>DOI3</t>
+  </si>
+  <si>
+    <t>DMSO1</t>
+  </si>
+  <si>
+    <t>DMSO2</t>
+  </si>
+  <si>
+    <t>DMSO3</t>
+  </si>
+  <si>
+    <t>/nrs/spruston/Boaz/I2/20251001_MouseCity3/</t>
+  </si>
+  <si>
+    <t>MC3_A</t>
+  </si>
+  <si>
+    <t>MC3_B</t>
+  </si>
+  <si>
+    <t>MC3_C</t>
+  </si>
+  <si>
+    <t>MC3_D</t>
+  </si>
+  <si>
+    <t>MC3_E</t>
+  </si>
+  <si>
+    <t>MC3_F</t>
+  </si>
+  <si>
+    <t>Might be issue in cortex/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}" name="Table1" displayName="Table1" ref="A1:O30" totalsRowShown="0">
-  <autoFilter ref="A1:O30" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}" name="Table1" displayName="Table1" ref="A1:O42" totalsRowShown="0">
+  <autoFilter ref="A1:O42" xr:uid="{241665E3-90A9-4B0B-8473-E35AC2DB7DBF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{9716BF13-BE76-4B73-BD3E-36A9B2EA60A4}" name="Number"/>
     <tableColumn id="2" xr3:uid="{72BE8D4C-BEB1-485A-BCF6-41CBA4A81747}" name="Cage"/>
@@ -672,29 +723,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683598A3-2D17-4BD1-A232-F944C044D30F}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -741,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -786,7 +837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -831,7 +882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -876,7 +927,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -921,7 +972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -969,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1014,7 +1065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1059,7 +1110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1104,7 +1155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1149,7 +1200,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1194,7 +1245,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1239,7 +1290,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1284,7 +1335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1329,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1374,7 +1425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1419,7 +1470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1464,7 +1515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1509,7 +1560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1554,7 +1605,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1599,7 +1650,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1644,7 +1695,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1689,7 +1740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1734,7 +1785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1779,7 +1830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1824,7 +1875,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1869,7 +1920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1917,7 +1968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1962,7 +2013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2007,7 +2058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2050,6 +2101,549 @@
       </c>
       <c r="N30" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>222993</v>
+      </c>
+      <c r="C31">
+        <v>564021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>222993</v>
+      </c>
+      <c r="C32">
+        <v>564022</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>222993</v>
+      </c>
+      <c r="C33">
+        <v>564023</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>222994</v>
+      </c>
+      <c r="C34">
+        <v>564024</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>222994</v>
+      </c>
+      <c r="C35">
+        <v>564025</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>222994</v>
+      </c>
+      <c r="C36">
+        <v>564026</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45556</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45635</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>2.6333333333333333</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>220742</v>
+      </c>
+      <c r="C37">
+        <v>550437</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="1">
+        <v>45377</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J37" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+      <c r="M37" t="s">
+        <v>50</v>
+      </c>
+      <c r="N37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>220742</v>
+      </c>
+      <c r="C38">
+        <v>550438</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45377</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>220742</v>
+      </c>
+      <c r="C39">
+        <v>550439</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45377</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.9</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>220743</v>
+      </c>
+      <c r="C40">
+        <v>551775</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1">
+        <v>45393</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>220743</v>
+      </c>
+      <c r="C41">
+        <v>551776</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45393</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J41" t="s">
+        <v>81</v>
+      </c>
+      <c r="K41" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>220743</v>
+      </c>
+      <c r="C42">
+        <v>551777</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45393</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45554</v>
+      </c>
+      <c r="J42" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="3">
+        <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+      <c r="M42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2074,25 +2668,25 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:F30</xm:sqref>
+          <xm:sqref>E2:F42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3224F4FB-1999-415A-8247-DE1F3ED4F932}">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G30</xm:sqref>
+          <xm:sqref>G2:G42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{493A2E7D-F49F-413C-9592-B97855D622E1}">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D30</xm:sqref>
+          <xm:sqref>D2:D42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D45614A4-1CE2-49AC-BB51-3E93392D1ACC}">
           <x14:formula1>
             <xm:f>Lists!$D$2:$D$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M30</xm:sqref>
+          <xm:sqref>M2:M42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2102,18 +2696,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC11BF50-9880-445C-BA1B-DF94E2EF0D09}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2127,7 +2721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +2735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -2174,7 +2768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -2182,14 +2776,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/paramaters/metadata.xlsx
+++ b/paramaters/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moharb/Repos/DELTA_iDISCO/paramaters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moharb/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56010FDD-6A81-214E-8FA5-DAF3CADDA708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8149967-332A-9F43-BBF8-4DFAA5B604EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16780" windowHeight="20140" xr2:uid="{745E1EB6-071C-45F7-9AB8-2E4ECE02DBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="88">
   <si>
     <t>female</t>
   </si>
@@ -255,7 +255,7 @@
     <t>Z673_5</t>
   </si>
   <si>
-    <t>/nrs/spruston/Boaz/I2/20251001_DOI/</t>
+    <t>/nrs/spruston/Boaz/I2/20250110_IDISCO_DOI</t>
   </si>
   <si>
     <t>DOI</t>
@@ -282,7 +282,7 @@
     <t>DMSO3</t>
   </si>
   <si>
-    <t>/nrs/spruston/Boaz/I2/20251001_MouseCity3/</t>
+    <t>/nrs/spruston/Boaz/I2/20250111_IDISCO_MouseCity3</t>
   </si>
   <si>
     <t>MC3_A</t>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>MC3_F</t>
-  </si>
-  <si>
-    <t>Might be issue in cortex/</t>
   </si>
 </sst>
 </file>
@@ -725,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683598A3-2D17-4BD1-A232-F944C044D30F}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2192,9 +2189,6 @@
       <c r="N32" t="s">
         <v>76</v>
       </c>
-      <c r="O32" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -2381,10 +2375,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>220742</v>
+        <v>223896</v>
       </c>
       <c r="C37">
-        <v>550437</v>
+        <v>556543</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -2399,20 +2393,20 @@
         <v>9</v>
       </c>
       <c r="H37" s="1">
-        <v>45377</v>
+        <v>45459</v>
       </c>
       <c r="I37" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J37" t="s">
         <v>81</v>
       </c>
       <c r="K37" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M37" t="s">
         <v>50</v>
@@ -2426,10 +2420,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>220742</v>
+        <v>223896</v>
       </c>
       <c r="C38">
-        <v>550438</v>
+        <v>556544</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -2444,20 +2438,20 @@
         <v>9</v>
       </c>
       <c r="H38" s="1">
-        <v>45377</v>
+        <v>45459</v>
       </c>
       <c r="I38" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J38" t="s">
         <v>81</v>
       </c>
       <c r="K38" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M38" t="s">
         <v>50</v>
@@ -2471,10 +2465,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>220742</v>
+        <v>223896</v>
       </c>
       <c r="C39">
-        <v>550439</v>
+        <v>556545</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -2489,20 +2483,20 @@
         <v>9</v>
       </c>
       <c r="H39" s="1">
-        <v>45377</v>
+        <v>45459</v>
       </c>
       <c r="I39" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J39" t="s">
         <v>81</v>
       </c>
       <c r="K39" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M39" t="s">
         <v>50</v>
@@ -2516,10 +2510,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>220743</v>
+        <v>218788</v>
       </c>
       <c r="C40">
-        <v>551775</v>
+        <v>555974</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -2534,20 +2528,20 @@
         <v>9</v>
       </c>
       <c r="H40" s="1">
-        <v>45393</v>
+        <v>45450</v>
       </c>
       <c r="I40" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J40" t="s">
         <v>81</v>
       </c>
       <c r="K40" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.3666666666666663</v>
+        <v>6</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M40" t="s">
         <v>50</v>
@@ -2561,10 +2555,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>220743</v>
+        <v>218788</v>
       </c>
       <c r="C41">
-        <v>551776</v>
+        <v>555975</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2579,20 +2573,20 @@
         <v>9</v>
       </c>
       <c r="H41" s="1">
-        <v>45393</v>
+        <v>45450</v>
       </c>
       <c r="I41" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J41" t="s">
         <v>81</v>
       </c>
       <c r="K41" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.3666666666666663</v>
+        <v>6</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M41" t="s">
         <v>50</v>
@@ -2606,10 +2600,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>220743</v>
+        <v>218788</v>
       </c>
       <c r="C42">
-        <v>551777</v>
+        <v>555976</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -2624,20 +2618,20 @@
         <v>9</v>
       </c>
       <c r="H42" s="1">
-        <v>45393</v>
+        <v>45450</v>
       </c>
       <c r="I42" s="1">
-        <v>45554</v>
+        <v>45630</v>
       </c>
       <c r="J42" t="s">
         <v>81</v>
       </c>
       <c r="K42" s="3">
         <f>IF(_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30&gt;0,_xlfn.DAYS(Table1[[#This Row],[Perfusion]],Table1[[#This Row],[DOB]])/30,0)</f>
-        <v>5.3666666666666663</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M42" t="s">
         <v>50</v>
@@ -2653,7 +2647,7 @@
       <formula1>100000</formula1>
       <formula2>999999</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30" xr:uid="{D7AA6B52-0D0A-4557-8F73-2BE98376B947}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H42" xr:uid="{D7AA6B52-0D0A-4557-8F73-2BE98376B947}">
       <formula1>43831</formula1>
     </dataValidation>
   </dataValidations>
